--- a/01_analyses_states/Gujarat/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Gujarat/results/SoIB_summaries.xlsx
@@ -546,10 +546,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -561,9 +558,6 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -572,10 +566,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>6.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -585,10 +576,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>90</v>
-      </c>
-      <c r="C5">
-        <v>21.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,10 +586,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>161</v>
-      </c>
-      <c r="C6">
-        <v>39.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -611,10 +596,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>131</v>
-      </c>
-      <c r="C7">
-        <v>31.8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +727,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>412</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +737,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -795,54 +777,35 @@
         </is>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>51.1</v>
+        <v>55.6</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>78.59999999999999</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Trend Different</t>
+          <t>IUCN</t>
         </is>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>4.4</v>
+        <v>44.4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>IUCN</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
         <v>44.4</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>14.3</v>
       </c>
     </row>
   </sheetData>

--- a/01_analyses_states/Gujarat/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Gujarat/results/SoIB_summaries.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Range Status" sheetId="2" r:id="rId2"/>
     <sheet name="Priority Status" sheetId="3" r:id="rId3"/>
     <sheet name="Species qualification" sheetId="4" r:id="rId4"/>
-    <sheet name="High Priority break-up" sheetId="5" r:id="rId5"/>
+    <sheet name="Interannual update - High Pri" sheetId="5" r:id="rId5"/>
+    <sheet name="Major update - High Priority " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -395,16 +396,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>36.8</v>
+        <v>5.3</v>
       </c>
       <c r="E2">
-        <v>46.3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -414,16 +415,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>20.6</v>
+        <v>10.5</v>
       </c>
       <c r="E3">
-        <v>32.2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -433,16 +434,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>11.8</v>
+        <v>28.9</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="5">
@@ -452,16 +453,16 @@
         </is>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
-        <v>5.9</v>
+        <v>15.8</v>
       </c>
       <c r="E5">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="6">
@@ -471,16 +472,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>39.5</v>
       </c>
       <c r="E6">
-        <v>1.7</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="7">
@@ -490,10 +491,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -631,7 +632,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +642,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>140</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
@@ -651,7 +652,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>227</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -687,11 +688,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SoIB 2023 Assessment</t>
+          <t>SoIB Assessment</t>
         </is>
       </c>
       <c r="B2">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3">
@@ -701,10 +702,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -714,10 +715,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -736,6 +737,97 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Break-up</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>High Species (no.)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High Species (perc.)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>New High Species (no.)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>New High Species (perc.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Trend New</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>66</v>
+      </c>
+      <c r="D2">
+        <v>68</v>
+      </c>
+      <c r="E2">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Trend Different</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IUCN</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>26.2</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>10.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/01_analyses_states/Gujarat/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Gujarat/results/SoIB_summaries.xlsx
@@ -396,16 +396,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>5.3</v>
+        <v>11.6</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="3">
@@ -415,16 +415,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>10.5</v>
+        <v>16.3</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="4">
@@ -434,16 +434,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>28.9</v>
+        <v>23.3</v>
       </c>
       <c r="E4">
-        <v>32.5</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="5">
@@ -453,16 +453,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>15.8</v>
+        <v>11.6</v>
       </c>
       <c r="E5">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6">
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>39.5</v>
+        <v>37.2</v>
       </c>
       <c r="E6">
-        <v>10.4</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="7">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C7">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -705,7 +705,7 @@
         <v>81</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -718,7 +718,7 @@
         <v>163</v>
       </c>
       <c r="C4">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
